--- a/binance_USDT_pair_list.xlsx
+++ b/binance_USDT_pair_list.xlsx
@@ -461,21 +461,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LUNA</t>
+          <t>BTC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LUNA/USDT</t>
+          <t>BTC/USDT</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14,183,981.28M</t>
+          <t>446,782.06M</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14183981280000</v>
+        <v>446782060000</v>
       </c>
     </row>
     <row r="3">
@@ -484,21 +484,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BTC</t>
+          <t>ETH</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BTC/USDT</t>
+          <t>ETH/USDT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>447,548.99M</t>
+          <t>201,982.95M</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>447548990000</v>
+        <v>201982950000</v>
       </c>
     </row>
     <row r="4">
@@ -507,21 +507,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>BUSD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ETH/USDT</t>
+          <t>BUSD/USDT</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>202,239.97M</t>
+          <t>17,901.59M</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>202239970000</v>
+        <v>17901590000</v>
       </c>
     </row>
     <row r="5">
@@ -530,21 +530,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>USDC</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>USDC/USDT</t>
+          <t>SOL/USDT</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>54,373.33M</t>
+          <t>13,900.78M</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>54373330000</v>
+        <v>13900780000</v>
       </c>
     </row>
     <row r="6">
@@ -553,21 +553,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>ETC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BNB/USDT</t>
+          <t>ETC/USDT</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>47,191.14M</t>
+          <t>5,061.76M</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>47191140000</v>
+        <v>5061760000</v>
       </c>
     </row>
     <row r="7">
@@ -576,21 +576,21 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>XRP</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>XRP/USDT</t>
+          <t>BNB/USDT</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>18,056.14M</t>
+          <t>48,627.05M</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>18056140000</v>
+        <v>48627050000</v>
       </c>
     </row>
     <row r="8">
@@ -599,21 +599,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BUSD</t>
+          <t>USDC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BUSD/USDT</t>
+          <t>USDC/USDT</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>17,901.59M</t>
+          <t>54,378.77M</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>17901590000</v>
+        <v>54378770000</v>
       </c>
     </row>
     <row r="9">
@@ -622,21 +622,21 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ADA</t>
+          <t>APE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ADA/USDT</t>
+          <t>APE/USDT</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17,254.13M</t>
+          <t>2,255.53M</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>17254130000</v>
+        <v>2255530000</v>
       </c>
     </row>
     <row r="10">
@@ -645,21 +645,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SOL/USDT</t>
+          <t>OP/USDT</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13,637.33M</t>
+          <t>424.89M</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>13637330000</v>
+        <v>424890000</v>
       </c>
     </row>
     <row r="11">
@@ -668,21 +668,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>FIL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DOT/USDT</t>
+          <t>FIL/USDT</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9,041.22M</t>
+          <t>2,150.10M</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>9041220000</v>
+        <v>2150100000</v>
       </c>
     </row>
     <row r="12">
@@ -691,21 +691,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DOGE</t>
+          <t>XRP</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DOGE/USDT</t>
+          <t>XRP/USDT</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8,992.42M</t>
+          <t>18,022.30M</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8992420000</v>
+        <v>18022300000</v>
       </c>
     </row>
     <row r="13">
@@ -724,11 +724,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7,339.79M</t>
+          <t>7,316.49M</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7339790000</v>
+        <v>7316490000</v>
       </c>
     </row>
     <row r="14">
@@ -737,21 +737,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AVAX</t>
+          <t>ADA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AVAX/USDT</t>
+          <t>ADA/USDT</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6,740.06M</t>
+          <t>17,254.13M</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6740060000</v>
+        <v>17254130000</v>
       </c>
     </row>
     <row r="15">
@@ -760,21 +760,21 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>UNI</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>UNI/USDT</t>
+          <t>DOT/USDT</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6,670.48M</t>
+          <t>9,218.50M</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6670480000</v>
+        <v>9218500000</v>
       </c>
     </row>
     <row r="16">
@@ -783,21 +783,21 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SHIB</t>
+          <t>AVAX</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SHIB/USDT</t>
+          <t>AVAX/USDT</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6,588.75M</t>
+          <t>6,794.10M</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6588750000</v>
+        <v>6794100000</v>
       </c>
     </row>
     <row r="17">
@@ -806,21 +806,21 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRX</t>
+          <t>SHIB</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TRX/USDT</t>
+          <t>SHIB/USDT</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>6,366.96M</t>
+          <t>6,588.75M</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6366960000</v>
+        <v>6588750000</v>
       </c>
     </row>
     <row r="18">
@@ -829,21 +829,21 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ETC/USDT</t>
+          <t>NEAR/USDT</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5,105.33M</t>
+          <t>3,379.92M</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5105330000</v>
+        <v>3379920000</v>
       </c>
     </row>
     <row r="19">
@@ -852,21 +852,21 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LTC</t>
+          <t>GALA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LTC/USDT</t>
+          <t>GALA/USDT</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4,182.16M</t>
+          <t>421.49M</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4182160000</v>
+        <v>421490000</v>
       </c>
     </row>
     <row r="20">
@@ -875,21 +875,21 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FTT</t>
+          <t>LDO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FTT/USDT</t>
+          <t>LDO/USDT</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3,999.29M</t>
+          <t>851.22M</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3999290000</v>
+        <v>851220000</v>
       </c>
     </row>
     <row r="21">
@@ -898,21 +898,21 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LINK/USDT</t>
+          <t>EUR/USDT</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3,536.08M</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3536080000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -921,21 +921,21 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>RUNE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NEAR/USDT</t>
+          <t>RUNE/USDT</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3,274.76M</t>
+          <t>909.39M</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3274760000</v>
+        <v>909390000</v>
       </c>
     </row>
     <row r="23">
@@ -944,21 +944,21 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ATOM</t>
+          <t>ENS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ATOM/USDT</t>
+          <t>ENS/USDT</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2,949.61M</t>
+          <t>330.39M</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2949610000</v>
+        <v>330390000</v>
       </c>
     </row>
     <row r="24">
@@ -967,21 +967,21 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>XLM</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>XLM/USDT</t>
+          <t>LINK/USDT</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2,929.84M</t>
+          <t>3,536.08M</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2929840000</v>
+        <v>3536080000</v>
       </c>
     </row>
     <row r="25">
@@ -990,21 +990,21 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>XMR</t>
+          <t>ALPACA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>XMR/USDT</t>
+          <t>ALPACA/USDT</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2,903.13M</t>
+          <t>41.46M</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2903130000</v>
+        <v>41460000</v>
       </c>
     </row>
     <row r="26">
@@ -1013,21 +1013,21 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>SNX</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BCH/USDT</t>
+          <t>SNX/USDT</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2,613.84M</t>
+          <t>442.13M</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2613840000</v>
+        <v>442130000</v>
       </c>
     </row>
     <row r="27">
@@ -1036,21 +1036,21 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ALGO</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ALGO/USDT</t>
+          <t>UNI/USDT</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2,309.21M</t>
+          <t>6,774.82M</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2309210000</v>
+        <v>6774820000</v>
       </c>
     </row>
     <row r="28">
@@ -1059,21 +1059,21 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>APE</t>
+          <t>GMT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>APE/USDT</t>
+          <t>GMT/USDT</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2,243.25M</t>
+          <t>561.41M</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2243250000</v>
+        <v>561410000</v>
       </c>
     </row>
     <row r="29">
@@ -1082,21 +1082,21 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>VET</t>
+          <t>FTM</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>VET/USDT</t>
+          <t>FTM/USDT</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2,147.05M</t>
+          <t>882.09M</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2147050000</v>
+        <v>882090000</v>
       </c>
     </row>
     <row r="30">
@@ -1105,21 +1105,21 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FIL</t>
+          <t>WAVES</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FIL/USDT</t>
+          <t>WAVES/USDT</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2,129.93M</t>
+          <t>630.88M</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2129930000</v>
+        <v>630880000</v>
       </c>
     </row>
     <row r="31">
@@ -1128,21 +1128,21 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>DOGE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ICP/USDT</t>
+          <t>DOGE/USDT</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2,055.49M</t>
+          <t>9,004.36M</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2055490000</v>
+        <v>9004360000</v>
       </c>
     </row>
     <row r="32">
@@ -1151,21 +1151,21 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>ROSE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>FLOW/USDT</t>
+          <t>ROSE/USDT</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1,979.14M</t>
+          <t>419.68M</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1979140000</v>
+        <v>419680000</v>
       </c>
     </row>
     <row r="33">
@@ -1174,21 +1174,21 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MANA</t>
+          <t>VET</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MANA/USDT</t>
+          <t>VET/USDT</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1,823.16M</t>
+          <t>2,204.33M</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1823160000</v>
+        <v>2204330000</v>
       </c>
     </row>
     <row r="34">
@@ -1197,21 +1197,21 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SAND</t>
+          <t>TRX</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SAND/USDT</t>
+          <t>TRX/USDT</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1,656.43M</t>
+          <t>6,371.58M</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1656430000</v>
+        <v>6371580000</v>
       </c>
     </row>
     <row r="35">
@@ -1220,21 +1220,21 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>XTZ</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>XTZ/USDT</t>
+          <t>SAND/USDT</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1,581.61M</t>
+          <t>1,669.27M</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1581610000</v>
+        <v>1669270000</v>
       </c>
     </row>
     <row r="36">
@@ -1243,21 +1243,21 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>HBAR</t>
+          <t>CHZ</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HBAR/USDT</t>
+          <t>CHZ/USDT</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1,526.53M</t>
+          <t>819.05M</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1526530000</v>
+        <v>819050000</v>
       </c>
     </row>
     <row r="37">
@@ -1266,21 +1266,21 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AXS</t>
+          <t>PEOPLE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AXS/USDT</t>
+          <t>PEOPLE/USDT</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1,468.81M</t>
+          <t>185.20M</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1468810000</v>
+        <v>185200000</v>
       </c>
     </row>
     <row r="38">
@@ -1289,21 +1289,21 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>AUCTION</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>THETA/USDT</t>
+          <t>AUCTION/USDT</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1,410.00M</t>
+          <t>21.15M</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1410000000</v>
+        <v>21150000</v>
       </c>
     </row>
     <row r="39">
@@ -1312,21 +1312,21 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AAVE</t>
+          <t>GAL</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AAVE/USDT</t>
+          <t>GAL/USDT</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1,354.59M</t>
+          <t>136.07M</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1354590000</v>
+        <v>136070000</v>
       </c>
     </row>
     <row r="40">
@@ -1335,21 +1335,21 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>EGLD</t>
+          <t>LTC</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>EGLD/USDT</t>
+          <t>LTC/USDT</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1,323.33M</t>
+          <t>4,199.17M</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1323330000</v>
+        <v>4199170000</v>
       </c>
     </row>
     <row r="41">
@@ -1358,21 +1358,21 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>QNT</t>
+          <t>BTCST</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>QNT/USDT</t>
+          <t>BTCST/USDT</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1,261.60M</t>
+          <t>263.18M</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1261600000</v>
+        <v>263180000</v>
       </c>
     </row>
     <row r="42">
@@ -1381,21 +1381,21 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>UNFI</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>EOS/USDT</t>
+          <t>UNFI/USDT</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1,205.29M</t>
+          <t>38.35M</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1205290000</v>
+        <v>38350000</v>
       </c>
     </row>
     <row r="43">
@@ -1404,21 +1404,21 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TUSD</t>
+          <t>JASMY</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TUSD/USDT</t>
+          <t>JASMY/USDT</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1,192.77M</t>
+          <t>47.38M</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1192770000</v>
+        <v>47380000</v>
       </c>
     </row>
     <row r="44">
@@ -1427,21 +1427,21 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>HNT</t>
+          <t>AAVE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HNT/USDT</t>
+          <t>AAVE/USDT</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1,083.18M</t>
+          <t>1,381.15M</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1083180000</v>
+        <v>1381150000</v>
       </c>
     </row>
     <row r="45">
@@ -1450,21 +1450,21 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MKR</t>
+          <t>CRV</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MKR/USDT</t>
+          <t>CRV/USDT</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1,051.93M</t>
+          <t>735.65M</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1051930000</v>
+        <v>735650000</v>
       </c>
     </row>
     <row r="46">
@@ -1473,21 +1473,21 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>USDP</t>
+          <t>DYDX</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>USDP/USDT</t>
+          <t>DYDX/USDT</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>945.45M</t>
+          <t>154.74M</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>945450000</v>
+        <v>154740000</v>
       </c>
     </row>
     <row r="47">
@@ -1496,21 +1496,21 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ZEC</t>
+          <t>ATOM</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ZEC/USDT</t>
+          <t>ATOM/USDT</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>933.45M</t>
+          <t>2,981.11M</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>933450000</v>
+        <v>2981110000</v>
       </c>
     </row>
     <row r="48">
@@ -1519,21 +1519,21 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>CTK</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>IOTA/USDT</t>
+          <t>CTK/USDT</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>917.24M</t>
+          <t>94.94M</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>917240000</v>
+        <v>94940000</v>
       </c>
     </row>
     <row r="49">
@@ -1542,21 +1542,21 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>RUNE</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>RUNE/USDT</t>
+          <t>ICP/USDT</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>916.00M</t>
+          <t>2,038.01M</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>916000000</v>
+        <v>2038010000</v>
       </c>
     </row>
     <row r="50">
@@ -1565,21 +1565,21 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>KLAY</t>
+          <t>MANA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>KLAY/USDT</t>
+          <t>MANA/USDT</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>868.44M</t>
+          <t>1,843.91M</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>868440000</v>
+        <v>1843910000</v>
       </c>
     </row>
     <row r="51">
@@ -1588,21 +1588,21 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FTM</t>
+          <t>THETA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>FTM/USDT</t>
+          <t>THETA/USDT</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>861.99M</t>
+          <t>1,420.00M</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>861990000</v>
+        <v>1420000000</v>
       </c>
     </row>
     <row r="52">
@@ -1611,21 +1611,21 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GRT</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GRT/USDT</t>
+          <t>EOS/USDT</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>840.42M</t>
+          <t>1,215.26M</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>840420000</v>
+        <v>1215260000</v>
       </c>
     </row>
     <row r="53">
@@ -1634,21 +1634,21 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CHZ</t>
+          <t>LIT</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CHZ/USDT</t>
+          <t>LIT/USDT</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>824.45M</t>
+          <t>41.58M</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>824450000</v>
+        <v>41580000</v>
       </c>
     </row>
     <row r="54">
@@ -1657,21 +1657,21 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>XEC</t>
+          <t>LEVER</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>XEC/USDT</t>
+          <t>LEVER/USDT</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>822.65M</t>
+          <t>41.33M</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>822650000</v>
+        <v>41330000</v>
       </c>
     </row>
     <row r="55">
@@ -1680,21 +1680,21 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NEO</t>
+          <t>AXS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NEO/USDT</t>
+          <t>AXS/USDT</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>784.39M</t>
+          <t>1,474.61M</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>784390000</v>
+        <v>1474610000</v>
       </c>
     </row>
     <row r="56">
@@ -1703,21 +1703,21 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>LDO</t>
+          <t>XMR</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>LDO/USDT</t>
+          <t>XMR/USDT</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>738.56M</t>
+          <t>2,875.90M</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>738560000</v>
+        <v>2875900000</v>
       </c>
     </row>
     <row r="57">
@@ -1726,21 +1726,21 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CRV</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CRV/USDT</t>
+          <t>HIGH/USDT</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>725.22M</t>
+          <t>26.08M</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>725220000</v>
+        <v>26080000</v>
       </c>
     </row>
     <row r="58">
@@ -1749,21 +1749,21 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>WAVES</t>
+          <t>LUNA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>WAVES/USDT</t>
+          <t>LUNA/USDT</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>630.88M</t>
+          <t>13,922,525.40M</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>630880000</v>
+        <v>13922525400000</v>
       </c>
     </row>
     <row r="59">
@@ -1772,21 +1772,21 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>STX/USDT</t>
+          <t>BCH/USDT</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>628.75M</t>
+          <t>2,657.85M</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>628750000</v>
+        <v>2657850000</v>
       </c>
     </row>
     <row r="60">
@@ -1795,21 +1795,21 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BAT</t>
+          <t>PUNDIX</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BAT/USDT</t>
+          <t>PUNDIX/USDT</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>603.70M</t>
+          <t>172.41M</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>603700000</v>
+        <v>172410000</v>
       </c>
     </row>
     <row r="61">
@@ -1818,21 +1818,21 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PAXG</t>
+          <t>DENT</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PAXG/USDT</t>
+          <t>DENT/USDT</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>597.84M</t>
+          <t>109.89M</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>597840000</v>
+        <v>109890000</v>
       </c>
     </row>
     <row r="62">
@@ -1841,21 +1841,21 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CAKE</t>
+          <t>RIF</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CAKE/USDT</t>
+          <t>RIF/USDT</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>559.57M</t>
+          <t>69.87M</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>559570000</v>
+        <v>69870000</v>
       </c>
     </row>
     <row r="63">
@@ -1864,21 +1864,21 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ENJ</t>
+          <t>TUSD</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ENJ/USDT</t>
+          <t>TUSD/USDT</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>558.45M</t>
+          <t>1,192.77M</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>558450000</v>
+        <v>1192770000</v>
       </c>
     </row>
     <row r="64">
@@ -1887,21 +1887,21 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>GMT</t>
+          <t>WING</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>GMT/USDT</t>
+          <t>WING/USDT</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>557.16M</t>
+          <t>39.25M</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>557160000</v>
+        <v>39250000</v>
       </c>
     </row>
     <row r="65">
@@ -1910,21 +1910,21 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ZIL</t>
+          <t>PERP</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ZIL/USDT</t>
+          <t>PERP/USDT</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>554.11M</t>
+          <t>86.11M</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>554110000</v>
+        <v>86110000</v>
       </c>
     </row>
     <row r="66">
@@ -1933,21 +1933,21 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>LRC</t>
+          <t>FORTH</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>LRC/USDT</t>
+          <t>FORTH/USDT</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>553.71M</t>
+          <t>88.88M</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>553710000</v>
+        <v>88880000</v>
       </c>
     </row>
     <row r="67">
@@ -1956,21 +1956,21 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>GRT</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DASH/USDT</t>
+          <t>GRT/USDT</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>542.44M</t>
+          <t>839.04M</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>542440000</v>
+        <v>839040000</v>
       </c>
     </row>
     <row r="68">
@@ -1979,21 +1979,21 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BTG</t>
+          <t>LOKA</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>BTG/USDT</t>
+          <t>LOKA/USDT</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>532.59M</t>
+          <t>21.75M</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>532590000.0000001</v>
+        <v>21750000</v>
       </c>
     </row>
     <row r="69">
@@ -2002,21 +2002,21 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>KSM</t>
+          <t>YFI</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>KSM/USDT</t>
+          <t>YFI/USDT</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>528.53M</t>
+          <t>404.94M</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>528530000</v>
+        <v>404940000</v>
       </c>
     </row>
     <row r="70">
@@ -2025,21 +2025,21 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>KAVA</t>
+          <t>ALGO</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>KAVA/USDT</t>
+          <t>ALGO/USDT</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>488.36M</t>
+          <t>2,306.43M</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>488360000</v>
+        <v>2306430000</v>
       </c>
     </row>
     <row r="71">
@@ -2048,21 +2048,21 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MINA</t>
+          <t>ZIL</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MINA/USDT</t>
+          <t>ZIL/USDT</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>485.86M</t>
+          <t>555.82M</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>485860000</v>
+        <v>555820000</v>
       </c>
     </row>
     <row r="72">
@@ -2071,21 +2071,21 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>AR/USDT</t>
+          <t>AUD/USDT</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>481.55M</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>481550000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2094,21 +2094,21 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CELO</t>
+          <t>EGLD</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CELO/USDT</t>
+          <t>EGLD/USDT</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>465.74M</t>
+          <t>1,342.61M</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>465740000</v>
+        <v>1342610000</v>
       </c>
     </row>
     <row r="74">
@@ -2117,21 +2117,21 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>NMR</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CVX/USDT</t>
+          <t>NMR/USDT</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>460.29M</t>
+          <t>124.89M</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>460290000</v>
+        <v>124890000</v>
       </c>
     </row>
     <row r="75">
@@ -2140,21 +2140,21 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SNX</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SNX/USDT</t>
+          <t>AR/USDT</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>450.17M</t>
+          <t>491.23M</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>450170000</v>
+        <v>491230000</v>
       </c>
     </row>
     <row r="76">
@@ -2163,21 +2163,21 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>XEM</t>
+          <t>RAD</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>XEM/USDT</t>
+          <t>RAD/USDT</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>444.59M</t>
+          <t>81.81M</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>444590000</v>
+        <v>81810000</v>
       </c>
     </row>
     <row r="77">
@@ -2186,21 +2186,21 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1INCH</t>
+          <t>IMX</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1INCH/USDT</t>
+          <t>IMX/USDT</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>440.06M</t>
+          <t>261.16M</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>440060000</v>
+        <v>261160000</v>
       </c>
     </row>
     <row r="78">
@@ -2209,21 +2209,21 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NEXO</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>NEXO/USDT</t>
+          <t>GBP/USDT</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>431.20M</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>431200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2232,21 +2232,21 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ROSE</t>
+          <t>ONE</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ROSE/USDT</t>
+          <t>ONE/USDT</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>430.49M</t>
+          <t>280.87M</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>430490000</v>
+        <v>280870000</v>
       </c>
     </row>
     <row r="80">
@@ -2255,21 +2255,21 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TWT</t>
+          <t>GLMR</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>TWT/USDT</t>
+          <t>GLMR/USDT</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>429.14M</t>
+          <t>237.52M</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>429140000</v>
+        <v>237520000</v>
       </c>
     </row>
     <row r="81">
@@ -2278,21 +2278,21 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>QTUM</t>
+          <t>TWT</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>QTUM/USDT</t>
+          <t>TWT/USDT</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>426.47M</t>
+          <t>429.14M</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>426470000</v>
+        <v>429140000</v>
       </c>
     </row>
     <row r="82">
@@ -2301,21 +2301,21 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>GALA</t>
+          <t>WIN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>GALA/USDT</t>
+          <t>WIN/USDT</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>422.53M</t>
+          <t>143.29M</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>422530000</v>
+        <v>143290000</v>
       </c>
     </row>
     <row r="83">
@@ -2324,21 +2324,21 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>COMP</t>
+          <t>HIVE</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>COMP/USDT</t>
+          <t>HIVE/USDT</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>415.01M</t>
+          <t>250.85M</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>415010000</v>
+        <v>250850000</v>
       </c>
     </row>
     <row r="84">
@@ -2347,21 +2347,21 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GNO</t>
+          <t>MOB</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>GNO/USDT</t>
+          <t>MOB/USDT</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>411.18M</t>
+          <t>106.13M</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>411180000</v>
+        <v>106130000</v>
       </c>
     </row>
     <row r="85">
@@ -2370,21 +2370,21 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>YFI</t>
+          <t>SUSHI</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>YFI/USDT</t>
+          <t>SUSHI/USDT</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>401.69M</t>
+          <t>185.77M</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>401690000</v>
+        <v>185770000</v>
       </c>
     </row>
     <row r="86">
@@ -2393,21 +2393,21 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>HOT</t>
+          <t>ALICE</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>HOT/USDT</t>
+          <t>ALICE/USDT</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>399.20M</t>
+          <t>85.98M</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>399200000</v>
+        <v>85980000</v>
       </c>
     </row>
     <row r="87">
@@ -2416,21 +2416,21 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>FTT</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>OP/USDT</t>
+          <t>FTT/USDT</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>392.02M</t>
+          <t>4,015.46M</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>392020000</v>
+        <v>4015460000</v>
       </c>
     </row>
     <row r="88">
@@ -2439,21 +2439,21 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DCR</t>
+          <t>BTTC</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>DCR/USDT</t>
+          <t>BTTC/USDT</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>390.02M</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>390020000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2462,21 +2462,21 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>RVN</t>
+          <t>ENJ</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>RVN/USDT</t>
+          <t>ENJ/USDT</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>386.46M</t>
+          <t>571.00M</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>386460000</v>
+        <v>571000000</v>
       </c>
     </row>
     <row r="90">
@@ -2485,21 +2485,21 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>KDA</t>
+          <t>LINA</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>KDA/USDT</t>
+          <t>LINA/USDT</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>358.51M</t>
+          <t>41.94M</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>358510000</v>
+        <v>41940000</v>
       </c>
     </row>
     <row r="91">
@@ -2508,21 +2508,21 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>FLOW</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>AMP/USDT</t>
+          <t>FLOW/USDT</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>354.29M</t>
+          <t>1,989.50M</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>354290000</v>
+        <v>1989500000</v>
       </c>
     </row>
     <row r="92">
@@ -2531,21 +2531,21 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ENS</t>
+          <t>DAR</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>ENS/USDT</t>
+          <t>DAR/USDT</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>329.99M</t>
+          <t>71.03M</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>329990000</v>
+        <v>71030000</v>
       </c>
     </row>
     <row r="93">
@@ -2554,21 +2554,21 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TFUEL</t>
+          <t>FLM</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>TFUEL/USDT</t>
+          <t>FLM/USDT</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>324.96M</t>
+          <t>69.82M</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>324960000</v>
+        <v>69820000</v>
       </c>
     </row>
     <row r="94">
@@ -2577,21 +2577,21 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>IOTX</t>
+          <t>TORN</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>IOTX/USDT</t>
+          <t>TORN/USDT</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>316.56M</t>
+          <t>32.82M</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>316560000</v>
+        <v>32820000</v>
       </c>
     </row>
     <row r="95">
@@ -2600,21 +2600,21 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>KAVA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>T/USDT</t>
+          <t>KAVA/USDT</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>314.15M</t>
+          <t>502.72M</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>314150000</v>
+        <v>502720000</v>
       </c>
     </row>
     <row r="96">
@@ -2623,21 +2623,21 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>OMG</t>
+          <t>DEGO</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>OMG/USDT</t>
+          <t>DEGO/USDT</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>312.74M</t>
+          <t>21.51M</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>312740000</v>
+        <v>21510000</v>
       </c>
     </row>
     <row r="97">
@@ -2646,21 +2646,21 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ANKR</t>
+          <t>MBOX</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ANKR/USDT</t>
+          <t>MBOX/USDT</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>302.25M</t>
+          <t>64.92M</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>302250000</v>
+        <v>64920000</v>
       </c>
     </row>
     <row r="98">
@@ -2669,21 +2669,21 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ICX</t>
+          <t>JST</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ICX/USDT</t>
+          <t>JST/USDT</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>296.99M</t>
+          <t>300.08M</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>296990000</v>
+        <v>300080000</v>
       </c>
     </row>
     <row r="99">
@@ -2692,21 +2692,21 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>JST</t>
+          <t>RVN</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>JST/USDT</t>
+          <t>RVN/USDT</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>295.99M</t>
+          <t>390.65M</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>295990000</v>
+        <v>390650000</v>
       </c>
     </row>
     <row r="100">
@@ -2715,21 +2715,21 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ZRX</t>
+          <t>KDA</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ZRX/USDT</t>
+          <t>KDA/USDT</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>292.72M</t>
+          <t>360.36M</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>292720000</v>
+        <v>360360000</v>
       </c>
     </row>
     <row r="101">
@@ -2738,21 +2738,21 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>AUDIO</t>
+          <t>ZEC</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>AUDIO/USDT</t>
+          <t>ZEC/USDT</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>283.18M</t>
+          <t>934.95M</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>283180000</v>
+        <v>934950000</v>
       </c>
     </row>
     <row r="102">
@@ -2761,21 +2761,21 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ONE</t>
+          <t>MINA</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>ONE/USDT</t>
+          <t>MINA/USDT</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>280.75M</t>
+          <t>493.25M</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>280750000</v>
+        <v>493250000</v>
       </c>
     </row>
     <row r="103">
@@ -2784,21 +2784,21 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>IOST</t>
+          <t>RSR</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>IOST/USDT</t>
+          <t>RSR/USDT</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>278.64M</t>
+          <t>128.21M</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>278640000</v>
+        <v>128210000</v>
       </c>
     </row>
     <row r="104">
@@ -2807,21 +2807,21 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>LPT</t>
+          <t>RLC</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>LPT/USDT</t>
+          <t>RLC/USDT</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>274.22M</t>
+          <t>87.47M</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>274220000</v>
+        <v>87470000</v>
       </c>
     </row>
     <row r="105">
@@ -2830,21 +2830,21 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>BTCST</t>
+          <t>LRC</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>BTCST/USDT</t>
+          <t>LRC/USDT</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>270.87M</t>
+          <t>556.11M</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>270870000</v>
+        <v>556110000</v>
       </c>
     </row>
     <row r="106">
@@ -2853,21 +2853,21 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>KNC</t>
+          <t>BOND</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>KNC/USDT</t>
+          <t>BOND/USDT</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>266.71M</t>
+          <t>62.99M</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>266710000</v>
+        <v>62990000</v>
       </c>
     </row>
     <row r="107">
@@ -2876,21 +2876,21 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>IMX</t>
+          <t>HOT</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>IMX/USDT</t>
+          <t>HOT/USDT</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>263.51M</t>
+          <t>401.80M</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>263510000</v>
+        <v>401800000</v>
       </c>
     </row>
     <row r="108">
@@ -2899,21 +2899,21 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>BNX</t>
+          <t>ANC</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>BNX/USDT</t>
+          <t>ANC/USDT</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>261.15M</t>
+          <t>40.34M</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>261150000</v>
+        <v>40340000</v>
       </c>
     </row>
     <row r="109">
@@ -2922,21 +2922,21 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>WOO</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>BAL/USDT</t>
+          <t>WOO/USDT</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>256.03M</t>
+          <t>224.49M</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>256030000</v>
+        <v>224490000</v>
       </c>
     </row>
     <row r="110">
@@ -2945,21 +2945,21 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SRM</t>
+          <t>XLM</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SRM/USDT</t>
+          <t>XLM/USDT</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>252.97M</t>
+          <t>2,924.80M</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>252970000</v>
+        <v>2924800000</v>
       </c>
     </row>
     <row r="111">
@@ -2968,21 +2968,21 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>STORJ</t>
+          <t>ACH</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>STORJ/USDT</t>
+          <t>ACH/USDT</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>251.57M</t>
+          <t>80.24M</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>251570000</v>
+        <v>80240000</v>
       </c>
     </row>
     <row r="112">
@@ -2991,21 +2991,21 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>HIVE</t>
+          <t>FXS</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HIVE/USDT</t>
+          <t>FXS/USDT</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>249.31M</t>
+          <t>121.40M</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>249310000</v>
+        <v>121400000</v>
       </c>
     </row>
     <row r="113">
@@ -3014,21 +3014,21 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>WAXP</t>
+          <t>BAKE</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>WAXP/USDT</t>
+          <t>BAKE/USDT</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>243.07M</t>
+          <t>68.12M</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>243070000</v>
+        <v>68120000</v>
       </c>
     </row>
     <row r="114">
@@ -3037,21 +3037,21 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>GLMR</t>
+          <t>BURGER</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>GLMR/USDT</t>
+          <t>BURGER/USDT</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>240.01M</t>
+          <t>37.87M</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>240010000</v>
+        <v>37870000</v>
       </c>
     </row>
     <row r="115">
@@ -3060,21 +3060,21 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ONT</t>
+          <t>CAKE</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ONT/USDT</t>
+          <t>CAKE/USDT</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>239.99M</t>
+          <t>573.85M</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>239990000</v>
+        <v>573850000</v>
       </c>
     </row>
     <row r="116">
@@ -3083,21 +3083,21 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>AVA</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SC/USDT</t>
+          <t>AVA/USDT</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>238.18M</t>
+          <t>42.44M</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>238180000</v>
+        <v>42440000</v>
       </c>
     </row>
     <row r="117">
@@ -3106,21 +3106,21 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>WOO</t>
+          <t>HBAR</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>WOO/USDT</t>
+          <t>HBAR/USDT</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>223.10M</t>
+          <t>1,530.75M</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>223100000</v>
+        <v>1530750000</v>
       </c>
     </row>
     <row r="118">
@@ -3129,21 +3129,21 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SKL</t>
+          <t>1INCH</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SKL/USDT</t>
+          <t>1INCH/USDT</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>222.03M</t>
+          <t>453.75M</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>222030000</v>
+        <v>453750000</v>
       </c>
     </row>
     <row r="119">
@@ -3152,21 +3152,21 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ZEN</t>
+          <t>OCEAN</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>ZEN/USDT</t>
+          <t>OCEAN/USDT</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>220.95M</t>
+          <t>120.84M</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>220950000</v>
+        <v>120840000</v>
       </c>
     </row>
     <row r="120">
@@ -3175,21 +3175,21 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SXP</t>
+          <t>STORJ</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SXP/USDT</t>
+          <t>STORJ/USDT</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>213.92M</t>
+          <t>251.34M</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>213920000</v>
+        <v>251340000</v>
       </c>
     </row>
     <row r="121">
@@ -3198,21 +3198,21 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>UMA</t>
+          <t>ALPHA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>UMA/USDT</t>
+          <t>ALPHA/USDT</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>206.09M</t>
+          <t>75.34M</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>206090000</v>
+        <v>75340000</v>
       </c>
     </row>
     <row r="122">
@@ -3221,21 +3221,21 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>POLY</t>
+          <t>PYR</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>POLY/USDT</t>
+          <t>PYR/USDT</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>205.53M</t>
+          <t>103.47M</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>205530000</v>
+        <v>103470000</v>
       </c>
     </row>
     <row r="123">
@@ -3244,21 +3244,21 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SLP</t>
+          <t>OGN</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SLP/USDT</t>
+          <t>OGN/USDT</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>188.26M</t>
+          <t>84.31M</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>188260000</v>
+        <v>84310000</v>
       </c>
     </row>
     <row r="124">
@@ -3267,21 +3267,21 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PEOPLE</t>
+          <t>ANKR</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>PEOPLE/USDT</t>
+          <t>ANKR/USDT</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>185.85M</t>
+          <t>312.88M</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>185850000</v>
+        <v>312880000</v>
       </c>
     </row>
     <row r="125">
@@ -3290,21 +3290,21 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SUSHI</t>
+          <t>SANTOS</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SUSHI/USDT</t>
+          <t>SANTOS/USDT</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>179.41M</t>
+          <t>20.56M</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>179410000</v>
+        <v>20560000</v>
       </c>
     </row>
     <row r="126">
@@ -3313,21 +3313,21 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DGB</t>
+          <t>CELR</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>DGB/USDT</t>
+          <t>CELR/USDT</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>178.86M</t>
+          <t>148.79M</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>178860000</v>
+        <v>148790000</v>
       </c>
     </row>
     <row r="127">
@@ -3336,21 +3336,21 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>RNDR</t>
+          <t>SLP</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>RNDR/USDT</t>
+          <t>SLP/USDT</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>178.16M</t>
+          <t>189.98M</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>178160000</v>
+        <v>189980000</v>
       </c>
     </row>
     <row r="128">
@@ -3359,21 +3359,21 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SCRT</t>
+          <t>KNC</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SCRT/USDT</t>
+          <t>KNC/USDT</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>176.35M</t>
+          <t>266.71M</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>176350000</v>
+        <v>266710000</v>
       </c>
     </row>
     <row r="129">
@@ -3382,21 +3382,21 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PLA</t>
+          <t>BETA</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>PLA/USDT</t>
+          <t>BETA/USDT</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>174.46M</t>
+          <t>67.16M</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>174460000</v>
+        <v>67160000</v>
       </c>
     </row>
     <row r="130">
@@ -3405,21 +3405,21 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ASTR</t>
+          <t>NEO</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ASTR/USDT</t>
+          <t>NEO/USDT</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>173.57M</t>
+          <t>780.86M</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>173570000</v>
+        <v>780860000</v>
       </c>
     </row>
     <row r="131">
@@ -3428,21 +3428,21 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PUNDIX</t>
+          <t>TRB</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>PUNDIX/USDT</t>
+          <t>TRB/USDT</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>163.10M</t>
+          <t>48.05M</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>163100000</v>
+        <v>48050000</v>
       </c>
     </row>
     <row r="132">
@@ -3451,21 +3451,21 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CVC</t>
+          <t>KSM</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>CVC/USDT</t>
+          <t>KSM/USDT</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>162.20M</t>
+          <t>533.61M</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>162200000</v>
+        <v>533610000</v>
       </c>
     </row>
     <row r="133">
@@ -3474,21 +3474,21 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>FLUX</t>
+          <t>CELO</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>FLUX/USDT</t>
+          <t>CELO/USDT</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>160.60M</t>
+          <t>470.30M</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>160600000</v>
+        <v>470300000</v>
       </c>
     </row>
     <row r="134">
@@ -3497,21 +3497,21 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DYDX</t>
+          <t>MASK</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>DYDX/USDT</t>
+          <t>MASK/USDT</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>153.43M</t>
+          <t>48.64M</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>153430000</v>
+        <v>48640000</v>
       </c>
     </row>
     <row r="135">
@@ -3520,21 +3520,21 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>CKB</t>
+          <t>ATA</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>CKB/USDT</t>
+          <t>ATA/USDT</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>148.36M</t>
+          <t>37.13M</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>148360000</v>
+        <v>37130000</v>
       </c>
     </row>
     <row r="136">
@@ -3543,21 +3543,21 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>LSK</t>
+          <t>SXP</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>LSK/USDT</t>
+          <t>SXP/USDT</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>148.23M</t>
+          <t>214.42M</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>148230000</v>
+        <v>214420000</v>
       </c>
     </row>
     <row r="137">
@@ -3566,21 +3566,21 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CELR</t>
+          <t>COMP</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>CELR/USDT</t>
+          <t>COMP/USDT</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>147.94M</t>
+          <t>421.41M</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>147940000</v>
+        <v>421410000</v>
       </c>
     </row>
     <row r="138">
@@ -3589,21 +3589,21 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>REN</t>
+          <t>BAT</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>REN/USDT</t>
+          <t>BAT/USDT</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>143.56M</t>
+          <t>606.39M</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>143560000</v>
+        <v>606390000</v>
       </c>
     </row>
     <row r="139">
@@ -3612,21 +3612,21 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>WIN</t>
+          <t>CHR</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>WIN/USDT</t>
+          <t>CHR/USDT</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>137.52M</t>
+          <t>116.19M</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>137520000</v>
+        <v>116190000</v>
       </c>
     </row>
     <row r="140">
@@ -3635,21 +3635,21 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ACA</t>
+          <t>YFII</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ACA/USDT</t>
+          <t>YFII/USDT</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>137.13M</t>
+          <t>72.54M</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>137130000</v>
+        <v>72540000</v>
       </c>
     </row>
     <row r="141">
@@ -3658,21 +3658,21 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>XNO</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>XNO/USDT</t>
+          <t>IOTA/USDT</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>135.91M</t>
+          <t>913.90M</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>135910000</v>
+        <v>913900000</v>
       </c>
     </row>
     <row r="142">
@@ -3681,21 +3681,21 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>GAL</t>
+          <t>GTC</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>GAL/USDT</t>
+          <t>GTC/USDT</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>135.37M</t>
+          <t>40.89M</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>135370000</v>
+        <v>40890000</v>
       </c>
     </row>
     <row r="143">
@@ -3704,21 +3704,21 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ONG</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>ONG/USDT</t>
+          <t>STX/USDT</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>133.36M</t>
+          <t>626.10M</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>133360000</v>
+        <v>626100000</v>
       </c>
     </row>
     <row r="144">
@@ -3727,21 +3727,21 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>REQ</t>
+          <t>ARPA</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>REQ/USDT</t>
+          <t>ARPA/USDT</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>132.77M</t>
+          <t>52.77M</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>132770000</v>
+        <v>52770000</v>
       </c>
     </row>
     <row r="145">
@@ -3750,21 +3750,21 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>RSR</t>
+          <t>RAY</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>RSR/USDT</t>
+          <t>RAY/USDT</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>126.15M</t>
+          <t>104.33M</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>126150000</v>
+        <v>104330000</v>
       </c>
     </row>
     <row r="146">
@@ -3773,21 +3773,21 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NMR</t>
+          <t>XTZ</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>NMR/USDT</t>
+          <t>XTZ/USDT</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>125.48M</t>
+          <t>1,599.69M</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>125480000</v>
+        <v>1599690000</v>
       </c>
     </row>
     <row r="147">
@@ -3796,21 +3796,21 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>POWR</t>
+          <t>AUDIO</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>POWR/USDT</t>
+          <t>AUDIO/USDT</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>120.94M</t>
+          <t>285.63M</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>120940000</v>
+        <v>285630000</v>
       </c>
     </row>
     <row r="148">
@@ -3819,21 +3819,21 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>COTI</t>
+          <t>SRM</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>COTI/USDT</t>
+          <t>SRM/USDT</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>119.90M</t>
+          <t>253.50M</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>119900000</v>
+        <v>253500000</v>
       </c>
     </row>
     <row r="149">
@@ -3842,21 +3842,21 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SYS</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SYS/USDT</t>
+          <t>BEL/USDT</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>119.61M</t>
+          <t>40.94M</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>119610000</v>
+        <v>40940000</v>
       </c>
     </row>
     <row r="150">
@@ -3865,21 +3865,21 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>API3</t>
+          <t>TVK</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>API3/USDT</t>
+          <t>TVK/USDT</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>117.61M</t>
+          <t>43.73M</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>117610000</v>
+        <v>43730000</v>
       </c>
     </row>
     <row r="151">
@@ -3888,21 +3888,21 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>CFX</t>
+          <t>SFP</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>CFX/USDT</t>
+          <t>SFP/USDT</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>117.49M</t>
+          <t>43.33M</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>117490000</v>
+        <v>43330000</v>
       </c>
     </row>
     <row r="152">
@@ -3911,21 +3911,21 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>BNT</t>
+          <t>PAXG</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>BNT/USDT</t>
+          <t>PAXG/USDT</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>116.78M</t>
+          <t>596.49M</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>116780000</v>
+        <v>596490000</v>
       </c>
     </row>
     <row r="153">
@@ -3934,21 +3934,21 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>CHR</t>
+          <t>KLAY</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>CHR/USDT</t>
+          <t>KLAY/USDT</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>115.57M</t>
+          <t>859.55M</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>115570000</v>
+        <v>859550000</v>
       </c>
     </row>
     <row r="154">
@@ -3957,21 +3957,21 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>OCEAN</t>
+          <t>FIDA</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>OCEAN/USDT</t>
+          <t>FIDA/USDT</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>115.26M</t>
+          <t>23.78M</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>115260000</v>
+        <v>23780000</v>
       </c>
     </row>
     <row r="155">
@@ -3980,21 +3980,21 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>FXS</t>
+          <t>TLM</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>FXS/USDT</t>
+          <t>TLM/USDT</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>114.11M</t>
+          <t>78.16M</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>114110000</v>
+        <v>78160000</v>
       </c>
     </row>
     <row r="156">
@@ -4003,21 +4003,21 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ARDR</t>
+          <t>NULS</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>ARDR/USDT</t>
+          <t>NULS/USDT</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>112.08M</t>
+          <t>25.76M</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>112080000</v>
+        <v>25760000</v>
       </c>
     </row>
     <row r="157">
@@ -4026,21 +4026,21 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>BICO</t>
+          <t>KP3R</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>BICO/USDT</t>
+          <t>KP3R/USDT</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>109.69M</t>
+          <t>30.76M</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>109690000</v>
+        <v>30760000</v>
       </c>
     </row>
     <row r="158">
@@ -4049,21 +4049,21 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>DENT</t>
+          <t>IOST</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>DENT/USDT</t>
+          <t>IOST/USDT</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>108.71M</t>
+          <t>278.83M</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>108710000</v>
+        <v>278830000</v>
       </c>
     </row>
     <row r="159">
@@ -4072,21 +4072,21 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>SPELL</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SPELL/USDT</t>
+          <t>ANT/USDT</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>107.28M</t>
+          <t>78.42M</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>107280000</v>
+        <v>78420000</v>
       </c>
     </row>
     <row r="160">
@@ -4095,21 +4095,21 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>JOE</t>
+          <t>QNT</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>JOE/USDT</t>
+          <t>QNT/USDT</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>105.33M</t>
+          <t>1,277.29M</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>105330000</v>
+        <v>1277290000</v>
       </c>
     </row>
     <row r="161">
@@ -4118,21 +4118,21 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>PYR</t>
+          <t>MITH</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>PYR/USDT</t>
+          <t>MITH/USDT</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>104.19M</t>
+          <t>29.50M</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>104190000</v>
+        <v>29500000</v>
       </c>
     </row>
     <row r="162">
@@ -4141,21 +4141,21 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>RAY</t>
+          <t>COTI</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>RAY/USDT</t>
+          <t>COTI/USDT</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>103.59M</t>
+          <t>119.48M</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>103590000</v>
+        <v>119480000</v>
       </c>
     </row>
     <row r="163">
@@ -4164,21 +4164,21 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MOB</t>
+          <t>MLN</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>MOB/USDT</t>
+          <t>MLN/USDT</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>101.67M</t>
+          <t>59.02M</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>101670000</v>
+        <v>59020000</v>
       </c>
     </row>
     <row r="164">
@@ -4187,21 +4187,21 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>WRX</t>
+          <t>TCT</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>WRX/USDT</t>
+          <t>TCT/USDT</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>100.81M</t>
+          <t>14.95M</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>100810000</v>
+        <v>14950000</v>
       </c>
     </row>
     <row r="165">
@@ -4210,21 +4210,21 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>STEEM</t>
+          <t>OOKI</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>STEEM/USDT</t>
+          <t>OOKI/USDT</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>99.17M</t>
+          <t>21.28M</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>99170000</v>
+        <v>21280000</v>
       </c>
     </row>
     <row r="166">
@@ -4233,21 +4233,21 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>STRAX</t>
+          <t>DASH</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>STRAX/USDT</t>
+          <t>DASH/USDT</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>98.94M</t>
+          <t>540.27M</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>98940000</v>
+        <v>540270000</v>
       </c>
     </row>
     <row r="167">
@@ -4256,21 +4256,21 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>VGX</t>
+          <t>C98</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>VGX/USDT</t>
+          <t>C98/USDT</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>98.86M</t>
+          <t>91.39M</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>98860000</v>
+        <v>91390000</v>
       </c>
     </row>
     <row r="168">
@@ -4279,21 +4279,21 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>CTSI</t>
+          <t>API3</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>CTSI/USDT</t>
+          <t>API3/USDT</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>98.08M</t>
+          <t>116.48M</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>98080000</v>
+        <v>116480000</v>
       </c>
     </row>
     <row r="169">
@@ -4302,21 +4302,21 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>BSW</t>
+          <t>DUSK</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>BSW/USDT</t>
+          <t>DUSK/USDT</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>95.75M</t>
+          <t>59.95M</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>95750000</v>
+        <v>59950000</v>
       </c>
     </row>
     <row r="170">
@@ -4325,21 +4325,21 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>VTHO</t>
+          <t>QI</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>VTHO/USDT</t>
+          <t>QI/USDT</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>95.41M</t>
+          <t>5.53M</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>95410000</v>
+        <v>5530000</v>
       </c>
     </row>
     <row r="171">
@@ -4348,21 +4348,21 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>REP</t>
+          <t>TOMO</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>REP/USDT</t>
+          <t>TOMO/USDT</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>94.27M</t>
+          <t>57.91M</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>94270000</v>
+        <v>57910000</v>
       </c>
     </row>
     <row r="172">
@@ -4371,21 +4371,21 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>INJ</t>
+          <t>STMX</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>INJ/USDT</t>
+          <t>STMX/USDT</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>94.25M</t>
+          <t>87.70M</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>94250000</v>
+        <v>87700000</v>
       </c>
     </row>
     <row r="173">
@@ -4394,21 +4394,21 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>CTK</t>
+          <t>LAZIO</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>CTK/USDT</t>
+          <t>LAZIO/USDT</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>93.32M</t>
+          <t>26.23M</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>93320000</v>
+        <v>26230000</v>
       </c>
     </row>
     <row r="174">
@@ -4417,21 +4417,21 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MTL</t>
+          <t>HNT</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>MTL/USDT</t>
+          <t>HNT/USDT</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>93.22M</t>
+          <t>1,094.25M</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>93220000</v>
+        <v>1094250000</v>
       </c>
     </row>
     <row r="175">
@@ -4440,21 +4440,21 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>YGG</t>
+          <t>OG</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>YGG/USDT</t>
+          <t>OG/USDT</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>93.07M</t>
+          <t>6.39M</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>93070000</v>
+        <v>6390000</v>
       </c>
     </row>
     <row r="176">
@@ -4463,21 +4463,21 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ELF</t>
+          <t>QTUM</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>ELF/USDT</t>
+          <t>QTUM/USDT</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>93.05M</t>
+          <t>424.38M</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>93050000</v>
+        <v>424380000</v>
       </c>
     </row>
     <row r="177">
@@ -4486,21 +4486,21 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>FUN</t>
+          <t>VOXEL</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>FUN/USDT</t>
+          <t>VOXEL/USDT</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>90.66M</t>
+          <t>27.08M</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>90660000</v>
+        <v>27080000</v>
       </c>
     </row>
     <row r="178">
@@ -4509,21 +4509,21 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>C98</t>
+          <t>BSW</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>C98/USDT</t>
+          <t>BSW/USDT</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>90.46M</t>
+          <t>102.75M</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>90460000</v>
+        <v>102750000</v>
       </c>
     </row>
     <row r="179">
@@ -4532,21 +4532,21 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>FORTH</t>
+          <t>RNDR</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>FORTH/USDT</t>
+          <t>RNDR/USDT</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>87.80M</t>
+          <t>190.60M</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>87800000</v>
+        <v>190600000</v>
       </c>
     </row>
     <row r="180">
@@ -4555,21 +4555,21 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>RLC</t>
+          <t>FET</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>RLC/USDT</t>
+          <t>FET/USDT</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>87.47M</t>
+          <t>72.74M</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>87470000</v>
+        <v>72740000</v>
       </c>
     </row>
     <row r="181">
@@ -4578,21 +4578,21 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>STMX</t>
+          <t>REEF</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>STMX/USDT</t>
+          <t>REEF/USDT</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>87.40M</t>
+          <t>82.69M</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>87400000</v>
+        <v>82690000</v>
       </c>
     </row>
     <row r="182">
@@ -4601,21 +4601,21 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MDX</t>
+          <t>VIDT</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>MDX/USDT</t>
+          <t>VIDT/USDT</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>85.44M</t>
+          <t>17.75M</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>85440000</v>
+        <v>17750000</v>
       </c>
     </row>
     <row r="183">
@@ -4624,21 +4624,21 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ALICE</t>
+          <t>CVC</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>ALICE/USDT</t>
+          <t>CVC/USDT</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>85.37M</t>
+          <t>161.60M</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>85370000</v>
+        <v>161600000</v>
       </c>
     </row>
     <row r="184">
@@ -4647,21 +4647,21 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>OGN</t>
+          <t>SUPER</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>OGN/USDT</t>
+          <t>SUPER/USDT</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>84.47M</t>
+          <t>67.64M</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>84470000</v>
+        <v>67640000</v>
       </c>
     </row>
     <row r="185">
@@ -4670,21 +4670,21 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>RAD</t>
+          <t>BADGER</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>RAD/USDT</t>
+          <t>BADGER/USDT</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>83.75M</t>
+          <t>60.18M</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>83750000</v>
+        <v>60180000</v>
       </c>
     </row>
     <row r="186">
@@ -4693,21 +4693,21 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>REEF</t>
+          <t>DATA</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>REEF/USDT</t>
+          <t>DATA/USDT</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>83.08M</t>
+          <t>30.63M</t>
         </is>
       </c>
       <c r="E186" t="n">
-        <v>83080000</v>
+        <v>30630000</v>
       </c>
     </row>
     <row r="187">
@@ -4716,21 +4716,21 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>OXT</t>
+          <t>POND</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>OXT/USDT</t>
+          <t>POND/USDT</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>82.33M</t>
+          <t>53.40M</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>82330000</v>
+        <v>53400000</v>
       </c>
     </row>
     <row r="188">
@@ -4739,21 +4739,21 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>XVS</t>
+          <t>IOTX</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>XVS/USDT</t>
+          <t>IOTX/USDT</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>80.20M</t>
+          <t>318.37M</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>80200000</v>
+        <v>318370000</v>
       </c>
     </row>
     <row r="189">
@@ -4762,21 +4762,21 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>SYS</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>ANT/USDT</t>
+          <t>SYS/USDT</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>79.21M</t>
+          <t>123.06M</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>79210000</v>
+        <v>123060000</v>
       </c>
     </row>
     <row r="190">
@@ -4785,21 +4785,21 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>STPT</t>
+          <t>MTL</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>STPT/USDT</t>
+          <t>MTL/USDT</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>78.67M</t>
+          <t>93.22M</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>78670000</v>
+        <v>93220000</v>
       </c>
     </row>
     <row r="191">
@@ -4808,21 +4808,21 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>TLM</t>
+          <t>BTG</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>TLM/USDT</t>
+          <t>BTG/USDT</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>78.03M</t>
+          <t>525.59M</t>
         </is>
       </c>
       <c r="E191" t="n">
-        <v>78030000</v>
+        <v>525590000.0000001</v>
       </c>
     </row>
     <row r="192">
@@ -4831,21 +4831,21 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>PERP</t>
+          <t>ZRX</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>PERP/USDT</t>
+          <t>ZRX/USDT</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>77.50M</t>
+          <t>294.08M</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>77500000</v>
+        <v>294080000</v>
       </c>
     </row>
     <row r="193">
@@ -4854,21 +4854,21 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ACH</t>
+          <t>MOVR</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>ACH/USDT</t>
+          <t>MOVR/USDT</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>77.02M</t>
+          <t>73.64M</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>77020000</v>
+        <v>73640000</v>
       </c>
     </row>
     <row r="194">
@@ -4877,21 +4877,21 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ALPHA</t>
+          <t>ACA</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>ALPHA/USDT</t>
+          <t>ACA/USDT</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>76.45M</t>
+          <t>139.46M</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>76450000</v>
+        <v>139460000</v>
       </c>
     </row>
     <row r="195">
@@ -4900,21 +4900,21 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ILV</t>
+          <t>WTC</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>ILV/USDT</t>
+          <t>WTC/USDT</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>75.36M</t>
+          <t>23.74M</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>75360000</v>
+        <v>23740000</v>
       </c>
     </row>
     <row r="196">
@@ -4923,21 +4923,21 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NKN</t>
+          <t>PORTO</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>NKN/USDT</t>
+          <t>PORTO/USDT</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>74.34M</t>
+          <t>26.13M</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>74340000</v>
+        <v>26130000</v>
       </c>
     </row>
     <row r="197">
@@ -4946,21 +4946,21 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MOVR</t>
+          <t>STPT</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>MOVR/USDT</t>
+          <t>STPT/USDT</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>74.08M</t>
+          <t>78.83M</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>74080000</v>
+        <v>78830000</v>
       </c>
     </row>
     <row r="198">
@@ -4969,21 +4969,21 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TRIBE</t>
+          <t>WAXP</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>TRIBE/USDT</t>
+          <t>WAXP/USDT</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>72.82M</t>
+          <t>244.34M</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>72820000</v>
+        <v>244340000</v>
       </c>
     </row>
     <row r="199">
@@ -4992,21 +4992,21 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>RIF</t>
+          <t>NEXO</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>RIF/USDT</t>
+          <t>NEXO/USDT</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>72.61M</t>
+          <t>422.80M</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>72610000</v>
+        <v>422800000</v>
       </c>
     </row>
     <row r="200">
@@ -5015,21 +5015,21 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>YFII</t>
+          <t>YGG</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>YFII/USDT</t>
+          <t>YGG/USDT</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>72.58M</t>
+          <t>93.84M</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>72580000</v>
+        <v>93840000</v>
       </c>
     </row>
     <row r="201">
@@ -5038,21 +5038,21 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>FET</t>
+          <t>DREP</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>FET/USDT</t>
+          <t>DREP/USDT</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>71.25M</t>
+          <t>23.57M</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>71250000</v>
+        <v>23570000</v>
       </c>
     </row>
     <row r="202">
@@ -5061,21 +5061,21 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>DAR</t>
+          <t>BICO</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>DAR/USDT</t>
+          <t>BICO/USDT</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>70.97M</t>
+          <t>106.07M</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>70970000</v>
+        <v>106070000</v>
       </c>
     </row>
     <row r="203">
@@ -5084,21 +5084,21 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>FLM</t>
+          <t>CTXC</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>FLM/USDT</t>
+          <t>CTXC/USDT</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>70.23M</t>
+          <t>30.61M</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>70230000</v>
+        <v>30610000</v>
       </c>
     </row>
     <row r="204">
@@ -5107,21 +5107,21 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>BAKE</t>
+          <t>UMA</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>BAKE/USDT</t>
+          <t>UMA/USDT</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>67.92M</t>
+          <t>206.09M</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>67920000</v>
+        <v>206090000</v>
       </c>
     </row>
     <row r="205">
@@ -5130,21 +5130,21 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>SUPER</t>
+          <t>ALPINE</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>SUPER/USDT</t>
+          <t>ALPINE/USDT</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>67.35M</t>
+          <t>32.26M</t>
         </is>
       </c>
       <c r="E205" t="n">
-        <v>67350000</v>
+        <v>32260000</v>
       </c>
     </row>
     <row r="206">
@@ -5153,21 +5153,21 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>MBL</t>
+          <t>AMP</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>MBL/USDT</t>
+          <t>AMP/USDT</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>66.99M</t>
+          <t>347.95M</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>66989999.99999999</v>
+        <v>347950000</v>
       </c>
     </row>
     <row r="207">
@@ -5176,21 +5176,21 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>UTK</t>
+          <t>BAND</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>UTK/USDT</t>
+          <t>BAND/USDT</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>66.31M</t>
+          <t>59.47M</t>
         </is>
       </c>
       <c r="E207" t="n">
-        <v>66310000</v>
+        <v>59470000</v>
       </c>
     </row>
     <row r="208">
@@ -5199,21 +5199,21 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>GHST</t>
+          <t>SKL</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>GHST/USDT</t>
+          <t>SKL/USDT</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>64.84M</t>
+          <t>222.40M</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>64840000</v>
+        <v>222400000</v>
       </c>
     </row>
     <row r="209">
@@ -5222,21 +5222,21 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>BETA</t>
+          <t>BAR</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>BETA/USDT</t>
+          <t>BAR/USDT</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>64.65M</t>
+          <t>22.80M</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>64650000.00000001</v>
+        <v>22800000</v>
       </c>
     </row>
     <row r="210">
@@ -5245,21 +5245,21 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>POLS</t>
+          <t>OMG</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>POLS/USDT</t>
+          <t>OMG/USDT</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>64.49M</t>
+          <t>311.34M</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>64489999.99999999</v>
+        <v>311340000</v>
       </c>
     </row>
     <row r="211">
@@ -5268,21 +5268,21 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>BOND</t>
+          <t>CLV</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>BOND/USDT</t>
+          <t>CLV/USDT</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>63.64M</t>
+          <t>36.13M</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>63640000</v>
+        <v>36130000</v>
       </c>
     </row>
     <row r="212">
@@ -5291,21 +5291,21 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>MBOX</t>
+          <t>MKR</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>MBOX/USDT</t>
+          <t>MKR/USDT</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>63.32M</t>
+          <t>1,045.08M</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>63320000</v>
+        <v>1045080000</v>
       </c>
     </row>
     <row r="213">
@@ -5314,21 +5314,21 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>XVG</t>
+          <t>CTSI</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>XVG/USDT</t>
+          <t>CTSI/USDT</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>62.40M</t>
+          <t>98.14M</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>62400000</v>
+        <v>98140000</v>
       </c>
     </row>
     <row r="214">
@@ -5337,21 +5337,21 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>BADGER</t>
+          <t>DNT</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>BADGER/USDT</t>
+          <t>DNT/USDT</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>60.69M</t>
+          <t>33.65M</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>60690000</v>
+        <v>33650000</v>
       </c>
     </row>
     <row r="215">
@@ -5360,21 +5360,21 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DUSK</t>
+          <t>ONT</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>DUSK/USDT</t>
+          <t>ONT/USDT</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>60.28M</t>
+          <t>240.43M</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>60280000</v>
+        <v>240430000</v>
       </c>
     </row>
     <row r="216">
@@ -5383,21 +5383,21 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>BAND</t>
+          <t>FIRO</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>BAND/USDT</t>
+          <t>FIRO/USDT</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>59.12M</t>
+          <t>31.86M</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>59120000</v>
+        <v>31860000</v>
       </c>
     </row>
     <row r="217">
@@ -5406,21 +5406,21 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>MLN</t>
+          <t>RARE</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>MLN/USDT</t>
+          <t>RARE/USDT</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>57.14M</t>
+          <t>31.23M</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>57140000</v>
+        <v>31230000</v>
       </c>
     </row>
     <row r="218">
@@ -5429,21 +5429,21 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TOMO</t>
+          <t>BLZ</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>TOMO/USDT</t>
+          <t>BLZ/USDT</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>56.80M</t>
+          <t>34.07M</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>56800000</v>
+        <v>34070000</v>
       </c>
     </row>
     <row r="219">
@@ -5452,21 +5452,21 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>POND</t>
+          <t>JUV</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>POND/USDT</t>
+          <t>JUV/USDT</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>54.38M</t>
+          <t>8.50M</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>54380000</v>
+        <v>8500000</v>
       </c>
     </row>
     <row r="220">
@@ -5475,21 +5475,21 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ALCX</t>
+          <t>INJ</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>ALCX/USDT</t>
+          <t>INJ/USDT</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>52.27M</t>
+          <t>94.25M</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>52270000</v>
+        <v>94250000</v>
       </c>
     </row>
     <row r="221">
@@ -5498,21 +5498,21 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>COCOS</t>
+          <t>WNXM</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>COCOS/USDT</t>
+          <t>WNXM/USDT</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>52.21M</t>
+          <t>31.91M</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>52210000</v>
+        <v>31910000</v>
       </c>
     </row>
     <row r="222">
@@ -5521,21 +5521,21 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ARPA</t>
+          <t>LPT</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>ARPA/USDT</t>
+          <t>LPT/USDT</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>51.85M</t>
+          <t>271.54M</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>51850000</v>
+        <v>271540000</v>
       </c>
     </row>
     <row r="223">
@@ -5544,21 +5544,21 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>IDEX</t>
+          <t>ALCX</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>IDEX/USDT</t>
+          <t>ALCX/USDT</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>51.76M</t>
+          <t>51.07M</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>51760000</v>
+        <v>51070000</v>
       </c>
     </row>
     <row r="224">
@@ -5567,21 +5567,21 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TRB</t>
+          <t>LSK</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>TRB/USDT</t>
+          <t>LSK/USDT</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>49.02M</t>
+          <t>149.52M</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>49020000</v>
+        <v>149520000</v>
       </c>
     </row>
     <row r="225">
@@ -5590,21 +5590,21 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ORN</t>
+          <t>VTHO</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>ORN/USDT</t>
+          <t>VTHO/USDT</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>48.82M</t>
+          <t>95.59M</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>48820000</v>
+        <v>95590000</v>
       </c>
     </row>
     <row r="226">
@@ -5613,21 +5613,21 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MASK</t>
+          <t>AUTO</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>MASK/USDT</t>
+          <t>AUTO/USDT</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>48.64M</t>
+          <t>19.55M</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>48640000</v>
+        <v>19550000</v>
       </c>
     </row>
     <row r="227">
@@ -5636,21 +5636,21 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ALPACA</t>
+          <t>DODO</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>ALPACA/USDT</t>
+          <t>DODO/USDT</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>48.23M</t>
+          <t>19.43M</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>48230000</v>
+        <v>19430000</v>
       </c>
     </row>
     <row r="228">
@@ -5659,21 +5659,21 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>WAN</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>WAN/USDT</t>
+          <t>BAL/USDT</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>48.19M</t>
+          <t>258.98M</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>48190000</v>
+        <v>258980000</v>
       </c>
     </row>
     <row r="229">
@@ -5682,21 +5682,21 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>ZEN</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>TRU/USDT</t>
+          <t>ZEN/USDT</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>47.42M</t>
+          <t>220.83M</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>47420000</v>
+        <v>220830000</v>
       </c>
     </row>
     <row r="230">
@@ -5705,21 +5705,21 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>JASMY</t>
+          <t>TFUEL</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>JASMY/USDT</t>
+          <t>TFUEL/USDT</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>47.31M</t>
+          <t>325.49M</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>47310000</v>
+        <v>325490000</v>
       </c>
     </row>
     <row r="231">
@@ -5728,21 +5728,21 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>MFT</t>
+          <t>ASTR</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>MFT/USDT</t>
+          <t>ASTR/USDT</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>46.64M</t>
+          <t>176.17M</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>46640000</v>
+        <v>176170000</v>
       </c>
     </row>
     <row r="232">
@@ -5751,21 +5751,21 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>TVK</t>
+          <t>SUN</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>TVK/USDT</t>
+          <t>SUN/USDT</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>44.11M</t>
+          <t>31.77M</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>44110000</v>
+        <v>31770000</v>
       </c>
     </row>
     <row r="233">
@@ -5774,21 +5774,21 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>SFP</t>
+          <t>CHESS</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>SFP/USDT</t>
+          <t>CHESS/USDT</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>42.62M</t>
+          <t>33.26M</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>42620000</v>
+        <v>33260000</v>
       </c>
     </row>
     <row r="234">
@@ -5797,21 +5797,21 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>AVA</t>
+          <t>MIR</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>AVA/USDT</t>
+          <t>MIR/USDT</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>42.08M</t>
+          <t>17.95M</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>42080000</v>
+        <v>17950000</v>
       </c>
     </row>
     <row r="235">
@@ -5820,21 +5820,21 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>LINA</t>
+          <t>FARM</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>LINA/USDT</t>
+          <t>FARM/USDT</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>41.67M</t>
+          <t>36.70M</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>41670000</v>
+        <v>36700000</v>
       </c>
     </row>
     <row r="236">
@@ -5843,21 +5843,21 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>KMD</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>KMD/USDT</t>
+          <t>CVX/USDT</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>41.62M</t>
+          <t>462.94M</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>41620000</v>
+        <v>462940000</v>
       </c>
     </row>
     <row r="237">
@@ -5866,21 +5866,21 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>LIT</t>
+          <t>COS</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>LIT/USDT</t>
+          <t>COS/USDT</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>41.58M</t>
+          <t>32.08M</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>41580000</v>
+        <v>32080000</v>
       </c>
     </row>
     <row r="238">
@@ -5889,21 +5889,21 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>REI</t>
+          <t>DGB</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>REI/USDT</t>
+          <t>DGB/USDT</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>41.04M</t>
+          <t>181.19M</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>41040000</v>
+        <v>181190000</v>
       </c>
     </row>
     <row r="239">
@@ -5912,21 +5912,21 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>ICX</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>BEL/USDT</t>
+          <t>ICX/USDT</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>40.65M</t>
+          <t>298.83M</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>40650000</v>
+        <v>298830000</v>
       </c>
     </row>
     <row r="240">
@@ -5935,21 +5935,21 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ANC</t>
+          <t>XEC</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>ANC/USDT</t>
+          <t>XEC/USDT</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>40.59M</t>
+          <t>841.79M</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>40590000</v>
+        <v>841790000</v>
       </c>
     </row>
     <row r="241">
@@ -5958,21 +5958,21 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>GTC</t>
+          <t>VGX</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>GTC/USDT</t>
+          <t>VGX/USDT</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>40.46M</t>
+          <t>98.02M</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>40460000</v>
+        <v>98020000</v>
       </c>
     </row>
     <row r="242">
@@ -5981,21 +5981,21 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>TROY</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>TROY/USDT</t>
+          <t>CVX/USDT</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>39.63M</t>
+          <t>464.93M</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>39630000</v>
+        <v>464930000</v>
       </c>
     </row>
     <row r="243">
@@ -6004,21 +6004,21 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>WING</t>
+          <t>WAN</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>WING/USDT</t>
+          <t>WAN/USDT</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>39.42M</t>
+          <t>48.04M</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>39420000</v>
+        <v>48040000</v>
       </c>
     </row>
     <row r="244">
@@ -6027,21 +6027,21 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>LTO</t>
+          <t>XVS</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>LTO/USDT</t>
+          <t>XVS/USDT</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>39.20M</t>
+          <t>81.42M</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>39200000</v>
+        <v>81420000</v>
       </c>
     </row>
     <row r="245">
@@ -6050,21 +6050,21 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>MC</t>
+          <t>EPX</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>MC/USDT</t>
+          <t>EPX/USDT</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>38.41M</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>38410000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -6073,21 +6073,21 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>LEVER</t>
+          <t>MDX</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>LEVER/USDT</t>
+          <t>MDX/USDT</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>38.37M</t>
+          <t>88.35M</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>38370000</v>
+        <v>88350000</v>
       </c>
     </row>
     <row r="247">
@@ -6096,21 +6096,21 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>BURGER</t>
+          <t>FIO</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>BURGER/USDT</t>
+          <t>FIO/USDT</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>38.11M</t>
+          <t>34.55M</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>38110000</v>
+        <v>34550000</v>
       </c>
     </row>
     <row r="248">
@@ -6119,21 +6119,21 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>REI</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>DIA/USDT</t>
+          <t>REI/USDT</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>37.46M</t>
+          <t>40.94M</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>37460000</v>
+        <v>40940000</v>
       </c>
     </row>
     <row r="249">
@@ -6142,21 +6142,21 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>FARM</t>
+          <t>PNT</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>FARM/USDT</t>
+          <t>PNT/USDT</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>37.31M</t>
+          <t>18.39M</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>37310000</v>
+        <v>18390000</v>
       </c>
     </row>
     <row r="250">
@@ -6165,21 +6165,21 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>BTS</t>
+          <t>ACM</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>BTS/USDT</t>
+          <t>ACM/USDT</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>37.25M</t>
+          <t>12.65M</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>37250000</v>
+        <v>12650000</v>
       </c>
     </row>
     <row r="251">
@@ -6188,21 +6188,21 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ERN</t>
+          <t>PERL</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>ERN/USDT</t>
+          <t>PERL/USDT</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>36.79M</t>
+          <t>12.73M</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>36790000</v>
+        <v>12730000</v>
       </c>
     </row>
     <row r="252">
@@ -6211,21 +6211,21 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ATA</t>
+          <t>POLS</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>ATA/USDT</t>
+          <t>POLS/USDT</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>36.70M</t>
+          <t>64.39M</t>
         </is>
       </c>
       <c r="E252" t="n">
-        <v>36700000</v>
+        <v>64390000</v>
       </c>
     </row>
     <row r="253">
@@ -6234,21 +6234,21 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>UNFI</t>
+          <t>AION</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>UNFI/USDT</t>
+          <t>AION/USDT</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>36.56M</t>
+          <t>20.80M</t>
         </is>
       </c>
       <c r="E253" t="n">
-        <v>36560000</v>
+        <v>20800000</v>
       </c>
     </row>
     <row r="254">
@@ -6257,21 +6257,21 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>TKO</t>
+          <t>ASR</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>TKO/USDT</t>
+          <t>ASR/USDT</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>36.34M</t>
+          <t>8.43M</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>36340000</v>
+        <v>8430000</v>
       </c>
     </row>
     <row r="255">
@@ -6280,21 +6280,21 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>CLV</t>
+          <t>REN</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>CLV/USDT</t>
+          <t>REN/USDT</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>36.16M</t>
+          <t>144.16M</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>36160000</v>
+        <v>144160000</v>
       </c>
     </row>
     <row r="256">
@@ -6303,21 +6303,21 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>PHA</t>
+          <t>IDEX</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>PHA/USDT</t>
+          <t>IDEX/USDT</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>34.89M</t>
+          <t>51.88M</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>34890000</v>
+        <v>51880000</v>
       </c>
     </row>
     <row r="257">
@@ -6326,21 +6326,21 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>FIO</t>
+          <t>QUICK</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>FIO/USDT</t>
+          <t>QUICK/USDT</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>34.85M</t>
+          <t>28.55M</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>34850000</v>
+        <v>28550000</v>
       </c>
     </row>
     <row r="258">
@@ -6349,21 +6349,21 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>HARD</t>
+          <t>ELF</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>HARD/USDT</t>
+          <t>ELF/USDT</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>34.70M</t>
+          <t>93.05M</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>34700000</v>
+        <v>93050000</v>
       </c>
     </row>
     <row r="259">
@@ -6372,21 +6372,21 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>PSG</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>BLZ/USDT</t>
+          <t>PSG/USDT</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>34.10M</t>
+          <t>30.05M</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>34100000</v>
+        <v>30050000</v>
       </c>
     </row>
     <row r="260">
@@ -6395,21 +6395,21 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>BIFI</t>
+          <t>GTO</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>BIFI/USDT</t>
+          <t>GTO/USDT</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>33.65M</t>
+          <t>25.75M</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>33650000</v>
+        <v>25750000</v>
       </c>
     </row>
     <row r="261">
@@ -6418,21 +6418,21 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>IRIS</t>
+          <t>AGLD</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>IRIS/USDT</t>
+          <t>AGLD/USDT</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>33.32M</t>
+          <t>31.78M</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>33320000</v>
+        <v>31780000</v>
       </c>
     </row>
     <row r="262">
@@ -6441,21 +6441,21 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>CHESS</t>
+          <t>FLUX</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>CHESS/USDT</t>
+          <t>FLUX/USDT</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>32.77M</t>
+          <t>159.57M</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>32770000</v>
+        <v>159570000</v>
       </c>
     </row>
     <row r="263">
@@ -6464,21 +6464,21 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>DNT</t>
+          <t>ADX</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>DNT/USDT</t>
+          <t>ADX/USDT</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>32.76M</t>
+          <t>27.05M</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>32760000</v>
+        <v>27050000</v>
       </c>
     </row>
     <row r="264">
@@ -6487,21 +6487,21 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>COS</t>
+          <t>NKN</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>COS/USDT</t>
+          <t>NKN/USDT</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>32.71M</t>
+          <t>74.69M</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>32710000</v>
+        <v>74690000</v>
       </c>
     </row>
     <row r="265">
@@ -6510,21 +6510,21 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ALPINE</t>
+          <t>MDT</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>ALPINE/USDT</t>
+          <t>MDT/USDT</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>32.37M</t>
+          <t>23.09M</t>
         </is>
       </c>
       <c r="E265" t="n">
-        <v>32370000</v>
+        <v>23090000</v>
       </c>
     </row>
     <row r="266">
@@ -6533,21 +6533,21 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>FIRO</t>
+          <t>VITE</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>FIRO/USDT</t>
+          <t>VITE/USDT</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>32.32M</t>
+          <t>16.05M</t>
         </is>
       </c>
       <c r="E266" t="n">
-        <v>32320000</v>
+        <v>16050000</v>
       </c>
     </row>
     <row r="267">
@@ -6556,21 +6556,21 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>AGLD</t>
+          <t>STRAX</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>AGLD/USDT</t>
+          <t>STRAX/USDT</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>31.85M</t>
+          <t>99.08M</t>
         </is>
       </c>
       <c r="E267" t="n">
-        <v>31850000</v>
+        <v>99080000</v>
       </c>
     </row>
     <row r="268">
@@ -6579,21 +6579,21 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>WNXM</t>
+          <t>SCRT</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>WNXM/USDT</t>
+          <t>SCRT/USDT</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>31.49M</t>
+          <t>176.35M</t>
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31490000</v>
+        <v>176350000</v>
       </c>
     </row>
     <row r="269">
@@ -6602,21 +6602,21 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>RARE</t>
+          <t>FRONT</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>RARE/USDT</t>
+          <t>FRONT/USDT</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>31.44M</t>
+          <t>27.61M</t>
         </is>
       </c>
       <c r="E269" t="n">
-        <v>31440000</v>
+        <v>27610000</v>
       </c>
     </row>
     <row r="270">
@@ -6625,21 +6625,21 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>SUN</t>
+          <t>MBL</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>SUN/USDT</t>
+          <t>MBL/USDT</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>31.42M</t>
+          <t>67.06M</t>
         </is>
       </c>
       <c r="E270" t="n">
-        <v>31420000</v>
+        <v>67060000</v>
       </c>
     </row>
     <row r="271">
@@ -6648,21 +6648,21 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>DATA</t>
+          <t>CFX</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>DATA/USDT</t>
+          <t>CFX/USDT</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>31.07M</t>
+          <t>116.03M</t>
         </is>
       </c>
       <c r="E271" t="n">
-        <v>31070000</v>
+        <v>116030000</v>
       </c>
     </row>
     <row r="272">
@@ -6671,21 +6671,21 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>CTXC</t>
+          <t>POWR</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>CTXC/USDT</t>
+          <t>POWR/USDT</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>30.98M</t>
+          <t>121.14M</t>
         </is>
       </c>
       <c r="E272" t="n">
-        <v>30980000</v>
+        <v>121140000</v>
       </c>
     </row>
     <row r="273">
@@ -6694,21 +6694,21 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>PSG</t>
+          <t>BNT</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>PSG/USDT</t>
+          <t>BNT/USDT</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>29.86M</t>
+          <t>116.99M</t>
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29860000</v>
+        <v>116990000</v>
       </c>
     </row>
     <row r="274">
@@ -6717,21 +6717,21 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>KP3R</t>
+          <t>AKRO</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>KP3R/USDT</t>
+          <t>AKRO/USDT</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>29.63M</t>
+          <t>25.80M</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29630000</v>
+        <v>25800000</v>
       </c>
     </row>
     <row r="275">
@@ -6740,21 +6740,21 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>TORN</t>
+          <t>ERN</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>TORN/USDT</t>
+          <t>ERN/USDT</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>29.19M</t>
+          <t>36.79M</t>
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29190000</v>
+        <v>36790000</v>
       </c>
     </row>
     <row r="276">
@@ -6763,21 +6763,21 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>QUICK</t>
+          <t>CVP</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>QUICK/USDT</t>
+          <t>CVP/USDT</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>29.07M</t>
+          <t>17.58M</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29070000</v>
+        <v>17580000</v>
       </c>
     </row>
     <row r="277">
@@ -6786,21 +6786,21 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>MITH</t>
+          <t>ATM</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>MITH/USDT</t>
+          <t>ATM/USDT</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>29.03M</t>
+          <t>10.56M</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29030000</v>
+        <v>10560000</v>
       </c>
     </row>
     <row r="278">
@@ -6809,21 +6809,21 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>FRONT</t>
+          <t>TKO</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>FRONT/USDT</t>
+          <t>TKO/USDT</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>27.76M</t>
+          <t>36.78M</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>27760000</v>
+        <v>36780000</v>
       </c>
     </row>
     <row r="279">
@@ -6832,21 +6832,21 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>VOXEL</t>
+          <t>WRX</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>VOXEL/USDT</t>
+          <t>WRX/USDT</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>27.65M</t>
+          <t>101.95M</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>27650000</v>
+        <v>101950000</v>
       </c>
     </row>
     <row r="280">
@@ -6855,21 +6855,21 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>TROY</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>OM/USDT</t>
+          <t>TROY/USDT</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>27.63M</t>
+          <t>39.47M</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>27630000</v>
+        <v>39470000</v>
       </c>
     </row>
     <row r="281">
@@ -6878,21 +6878,21 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>ADX</t>
+          <t>CITY</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>ADX/USDT</t>
+          <t>CITY/USDT</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>27.04M</t>
+          <t>21.29M</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>27040000</v>
+        <v>21290000</v>
       </c>
     </row>
     <row r="282">
@@ -6901,21 +6901,21 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>LAZIO</t>
+          <t>ILV</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>LAZIO/USDT</t>
+          <t>ILV/USDT</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>26.31M</t>
+          <t>75.36M</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>26310000</v>
+        <v>75360000</v>
       </c>
     </row>
     <row r="283">
@@ -6924,21 +6924,21 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>KEY</t>
+          <t>TRIBE</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>KEY/USDT</t>
+          <t>TRIBE/USDT</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>26.16M</t>
+          <t>72.59M</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>26160000</v>
+        <v>72590000</v>
       </c>
     </row>
     <row r="284">
@@ -6947,21 +6947,21 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>PORTO</t>
+          <t>DOCK</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>PORTO/USDT</t>
+          <t>DOCK/USDT</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>26.05M</t>
+          <t>21.86M</t>
         </is>
       </c>
       <c r="E284" t="n">
-        <v>26050000</v>
+        <v>21860000</v>
       </c>
     </row>
     <row r="285">
@@ -6970,21 +6970,21 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>AKRO</t>
+          <t>IRIS</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>AKRO/USDT</t>
+          <t>IRIS/USDT</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>26.05M</t>
+          <t>33.52M</t>
         </is>
       </c>
       <c r="E285" t="n">
-        <v>26050000</v>
+        <v>33520000</v>
       </c>
     </row>
     <row r="286">
@@ -6993,21 +6993,21 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>NULS</t>
+          <t>COCOS</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>NULS/USDT</t>
+          <t>COCOS/USDT</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>25.93M</t>
+          <t>52.15M</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>25930000</v>
+        <v>52150000</v>
       </c>
     </row>
     <row r="287">
@@ -7016,21 +7016,21 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>XEM</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>HIGH/USDT</t>
+          <t>XEM/USDT</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>25.83M</t>
+          <t>450.89M</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>25830000</v>
+        <v>450890000</v>
       </c>
     </row>
     <row r="288">
@@ -7039,21 +7039,21 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>GTO</t>
+          <t>BEAM</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>GTO/USDT</t>
+          <t>BEAM/USDT</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>25.82M</t>
+          <t>22.85M</t>
         </is>
       </c>
       <c r="E288" t="n">
-        <v>25820000</v>
+        <v>22850000</v>
       </c>
     </row>
     <row r="289">
@@ -7062,21 +7062,21 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>TRU</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>FIS/USDT</t>
+          <t>TRU/USDT</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>25.74M</t>
+          <t>47.97M</t>
         </is>
       </c>
       <c r="E289" t="n">
-        <v>25740000</v>
+        <v>47970000</v>
       </c>
     </row>
     <row r="290">
@@ -7085,21 +7085,21 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>DREP</t>
+          <t>REQ</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>DREP/USDT</t>
+          <t>REQ/USDT</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>23.97M</t>
+          <t>134.57M</t>
         </is>
       </c>
       <c r="E290" t="n">
-        <v>23970000</v>
+        <v>134570000</v>
       </c>
     </row>
     <row r="291">
@@ -7108,21 +7108,21 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>FIDA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>FIDA/USDT</t>
+          <t>DIA/USDT</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>23.81M</t>
+          <t>38.59M</t>
         </is>
       </c>
       <c r="E291" t="n">
-        <v>23810000</v>
+        <v>38590000</v>
       </c>
     </row>
     <row r="292">
@@ -7131,21 +7131,21 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>WTC</t>
+          <t>HARD</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>WTC/USDT</t>
+          <t>HARD/USDT</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>23.69M</t>
+          <t>34.97M</t>
         </is>
       </c>
       <c r="E292" t="n">
-        <v>23690000</v>
+        <v>34970000</v>
       </c>
     </row>
     <row r="293">
@@ -7154,21 +7154,21 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>MDT</t>
+          <t>KMD</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>MDT/USDT</t>
+          <t>KMD/USDT</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>23.42M</t>
+          <t>41.66M</t>
         </is>
       </c>
       <c r="E293" t="n">
-        <v>23420000</v>
+        <v>41660000</v>
       </c>
     </row>
     <row r="294">
@@ -7177,21 +7177,21 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>BEAM</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>BEAM/USDT</t>
+          <t>T/USDT</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>22.76M</t>
+          <t>318.27M</t>
         </is>
       </c>
       <c r="E294" t="n">
-        <v>22760000</v>
+        <v>318270000</v>
       </c>
     </row>
     <row r="295">
@@ -7200,21 +7200,21 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>BAR</t>
+          <t>MULTI</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>BAR/USDT</t>
+          <t>MULTI/USDT</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>22.76M</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E295" t="n">
-        <v>22760000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -7223,21 +7223,21 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>DEGO</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>DEGO/USDT</t>
+          <t>SC/USDT</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>22.20M</t>
+          <t>237.67M</t>
         </is>
       </c>
       <c r="E296" t="n">
-        <v>22200000</v>
+        <v>237670000</v>
       </c>
     </row>
     <row r="297">
@@ -7246,21 +7246,21 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>DEXE</t>
+          <t>USDP</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>DEXE/USDT</t>
+          <t>USDP/USDT</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>21.94M</t>
+          <t>945.45M</t>
         </is>
       </c>
       <c r="E297" t="n">
-        <v>21940000</v>
+        <v>945450000</v>
       </c>
     </row>
     <row r="298">
@@ -7269,21 +7269,21 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>LOKA</t>
+          <t>PHA</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>LOKA/USDT</t>
+          <t>PHA/USDT</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>21.66M</t>
+          <t>35.33M</t>
         </is>
       </c>
       <c r="E298" t="n">
-        <v>21660000</v>
+        <v>35330000</v>
       </c>
     </row>
     <row r="299">
@@ -7292,21 +7292,21 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>CITY</t>
+          <t>BNX</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>CITY/USDT</t>
+          <t>BNX/USDT</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>21.18M</t>
+          <t>262.36M</t>
         </is>
       </c>
       <c r="E299" t="n">
-        <v>21180000</v>
+        <v>262360000</v>
       </c>
     </row>
     <row r="300">
@@ -7315,21 +7315,21 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>AION</t>
+          <t>ORN</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>AION/USDT</t>
+          <t>ORN/USDT</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>21.09M</t>
+          <t>48.82M</t>
         </is>
       </c>
       <c r="E300" t="n">
-        <v>21090000</v>
+        <v>48820000</v>
       </c>
     </row>
     <row r="301">
@@ -7338,21 +7338,21 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>DOCK</t>
+          <t>UTK</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>DOCK/USDT</t>
+          <t>UTK/USDT</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>21.07M</t>
+          <t>67.49M</t>
         </is>
       </c>
       <c r="E301" t="n">
-        <v>21070000</v>
+        <v>67490000</v>
       </c>
     </row>
     <row r="302">
@@ -7361,21 +7361,21 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>OOKI</t>
+          <t>DEXE</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>OOKI/USDT</t>
+          <t>DEXE/USDT</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>20.61M</t>
+          <t>22.16M</t>
         </is>
       </c>
       <c r="E302" t="n">
-        <v>20610000</v>
+        <v>22160000</v>
       </c>
     </row>
     <row r="303">
@@ -7384,21 +7384,21 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>SANTOS</t>
+          <t>KEY</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>SANTOS/USDT</t>
+          <t>KEY/USDT</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>20.47M</t>
+          <t>26.18M</t>
         </is>
       </c>
       <c r="E303" t="n">
-        <v>20470000</v>
+        <v>26180000</v>
       </c>
     </row>
     <row r="304">
@@ -7407,21 +7407,21 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>AUTO</t>
+          <t>NBS</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>AUTO/USDT</t>
+          <t>NBS/USDT</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>19.44M</t>
+          <t>13.76M</t>
         </is>
       </c>
       <c r="E304" t="n">
-        <v>19440000</v>
+        <v>13760000</v>
       </c>
     </row>
     <row r="305">
@@ -7430,21 +7430,21 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>DODO</t>
+          <t>JOE</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>DODO/USDT</t>
+          <t>JOE/USDT</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>19.41M</t>
+          <t>105.63M</t>
         </is>
       </c>
       <c r="E305" t="n">
-        <v>19410000</v>
+        <v>105630000</v>
       </c>
     </row>
     <row r="306">
@@ -7463,11 +7463,11 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>18.91M</t>
+          <t>19.00M</t>
         </is>
       </c>
       <c r="E306" t="n">
-        <v>18910000</v>
+        <v>19000000</v>
       </c>
     </row>
     <row r="307">
@@ -7476,21 +7476,21 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>PNT</t>
+          <t>BTS</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>PNT/USDT</t>
+          <t>BTS/USDT</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>18.72M</t>
+          <t>37.25M</t>
         </is>
       </c>
       <c r="E307" t="n">
-        <v>18720000</v>
+        <v>37250000</v>
       </c>
     </row>
     <row r="308">
@@ -7499,21 +7499,21 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>MIR</t>
+          <t>FOR</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>MIR/USDT</t>
+          <t>FOR/USDT</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>18.38M</t>
+          <t>16.16M</t>
         </is>
       </c>
       <c r="E308" t="n">
-        <v>18380000</v>
+        <v>16160000</v>
       </c>
     </row>
     <row r="309">
@@ -7522,21 +7522,21 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>VIDT</t>
+          <t>OXT</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>VIDT/USDT</t>
+          <t>OXT/USDT</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>17.75M</t>
+          <t>82.95M</t>
         </is>
       </c>
       <c r="E309" t="n">
-        <v>17750000</v>
+        <v>82950000</v>
       </c>
     </row>
     <row r="310">
@@ -7545,21 +7545,21 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>AUCTION</t>
+          <t>PLA</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>AUCTION/USDT</t>
+          <t>PLA/USDT</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>17.71M</t>
+          <t>173.18M</t>
         </is>
       </c>
       <c r="E310" t="n">
-        <v>17710000</v>
+        <v>173180000</v>
       </c>
     </row>
     <row r="311">
@@ -7568,21 +7568,21 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>CVP</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>CVP/USDT</t>
+          <t>OM/USDT</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>17.33M</t>
+          <t>28.18M</t>
         </is>
       </c>
       <c r="E311" t="n">
-        <v>17330000</v>
+        <v>28180000</v>
       </c>
     </row>
     <row r="312">
@@ -7591,21 +7591,21 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>VITE</t>
+          <t>FIS</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>VITE/USDT</t>
+          <t>FIS/USDT</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>16.38M</t>
+          <t>26.17M</t>
         </is>
       </c>
       <c r="E312" t="n">
-        <v>16380000</v>
+        <v>26170000</v>
       </c>
     </row>
     <row r="313">
@@ -7614,21 +7614,21 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>FOR</t>
+          <t>ONG</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>FOR/USDT</t>
+          <t>ONG/USDT</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>16.03M</t>
+          <t>133.80M</t>
         </is>
       </c>
       <c r="E313" t="n">
-        <v>16030000</v>
+        <v>133800000</v>
       </c>
     </row>
     <row r="314">
@@ -7637,21 +7637,21 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>TCT</t>
+          <t>MFT</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>TCT/USDT</t>
+          <t>MFT/USDT</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>15.66M</t>
+          <t>46.38M</t>
         </is>
       </c>
       <c r="E314" t="n">
-        <v>15660000</v>
+        <v>46380000</v>
       </c>
     </row>
     <row r="315">
@@ -7660,21 +7660,21 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NBS</t>
+          <t>REP</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>NBS/USDT</t>
+          <t>REP/USDT</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>13.76M</t>
+          <t>94.60M</t>
         </is>
       </c>
       <c r="E315" t="n">
-        <v>13760000</v>
+        <v>94600000</v>
       </c>
     </row>
     <row r="316">
@@ -7683,21 +7683,21 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>PERL</t>
+          <t>GHST</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>PERL/USDT</t>
+          <t>GHST/USDT</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>12.89M</t>
+          <t>64.36M</t>
         </is>
       </c>
       <c r="E316" t="n">
-        <v>12890000</v>
+        <v>64360000</v>
       </c>
     </row>
     <row r="317">
@@ -7706,21 +7706,21 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>ACM/USDT</t>
+          <t>MC/USDT</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>12.56M</t>
+          <t>38.58M</t>
         </is>
       </c>
       <c r="E317" t="n">
-        <v>12560000</v>
+        <v>38580000</v>
       </c>
     </row>
     <row r="318">
@@ -7729,21 +7729,21 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>XVG</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>ATM/USDT</t>
+          <t>XVG/USDT</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>10.56M</t>
+          <t>64.05M</t>
         </is>
       </c>
       <c r="E318" t="n">
-        <v>10560000</v>
+        <v>64050000</v>
       </c>
     </row>
     <row r="319">
@@ -7752,21 +7752,21 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>JUV</t>
+          <t>LTO</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>JUV/USDT</t>
+          <t>LTO/USDT</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>8.63M</t>
+          <t>39.40M</t>
         </is>
       </c>
       <c r="E319" t="n">
-        <v>8630000</v>
+        <v>39400000</v>
       </c>
     </row>
     <row r="320">
@@ -7775,21 +7775,21 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>ASR</t>
+          <t>BIFI</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>ASR/USDT</t>
+          <t>BIFI/USDT</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>8.43M</t>
+          <t>33.94M</t>
         </is>
       </c>
       <c r="E320" t="n">
-        <v>8430000</v>
+        <v>33940000</v>
       </c>
     </row>
     <row r="321">
@@ -7798,21 +7798,21 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>OG</t>
+          <t>XNO</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>OG/USDT</t>
+          <t>XNO/USDT</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>6.46M</t>
+          <t>135.91M</t>
         </is>
       </c>
       <c r="E321" t="n">
-        <v>6460000</v>
+        <v>135910000</v>
       </c>
     </row>
     <row r="322">
@@ -7821,21 +7821,21 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>QI</t>
+          <t>CKB</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>QI/USDT</t>
+          <t>CKB/USDT</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>5.42M</t>
+          <t>149.03M</t>
         </is>
       </c>
       <c r="E322" t="n">
-        <v>5420000</v>
+        <v>149030000</v>
       </c>
     </row>
     <row r="323">
@@ -7844,21 +7844,21 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>STEEM</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>AUD/USDT</t>
+          <t>STEEM/USDT</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100.19M</t>
         </is>
       </c>
       <c r="E323" t="n">
-        <v>0</v>
+        <v>100190000</v>
       </c>
     </row>
     <row r="324">
@@ -7867,21 +7867,21 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>ARDR</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>EUR/USDT</t>
+          <t>ARDR/USDT</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>112.38M</t>
         </is>
       </c>
       <c r="E324" t="n">
-        <v>0</v>
+        <v>112380000</v>
       </c>
     </row>
     <row r="325">
@@ -7890,21 +7890,21 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>POLY</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>GBP/USDT</t>
+          <t>POLY/USDT</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>206.27M</t>
         </is>
       </c>
       <c r="E325" t="n">
-        <v>0</v>
+        <v>206270000</v>
       </c>
     </row>
     <row r="326">
@@ -7913,21 +7913,21 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>BTTC</t>
+          <t>DCR</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>BTTC/USDT</t>
+          <t>DCR/USDT</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>390.02M</t>
         </is>
       </c>
       <c r="E326" t="n">
-        <v>0</v>
+        <v>390020000</v>
       </c>
     </row>
     <row r="327">
@@ -7936,21 +7936,21 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>MULTI</t>
+          <t>FUN</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>MULTI/USDT</t>
+          <t>FUN/USDT</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>90.22M</t>
         </is>
       </c>
       <c r="E327" t="n">
-        <v>0</v>
+        <v>90220000</v>
       </c>
     </row>
     <row r="328">
@@ -7959,21 +7959,21 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>EPX</t>
+          <t>GNO</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>EPX/USDT</t>
+          <t>GNO/USDT</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>411.96M</t>
         </is>
       </c>
       <c r="E328" t="n">
-        <v>0</v>
+        <v>411960000</v>
       </c>
     </row>
   </sheetData>
